--- a/biology/Botanique/Oxalide_de_montagne/Oxalide_de_montagne.xlsx
+++ b/biology/Botanique/Oxalide_de_montagne/Oxalide_de_montagne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Oxalis montana
-L'oxalide de montagne[1] ou oxalis de montagne (Oxalis montana) est une espèce de plantes herbacées de la famille des Oxalidaceae. Elle vit en Amérique du Nord.
+L'oxalide de montagne ou oxalis de montagne (Oxalis montana) est une espèce de plantes herbacées de la famille des Oxalidaceae. Elle vit en Amérique du Nord.
 Synonymes (d'après ITIS)
 Oxalis acetosella var. rhodantha (Fernald) R. Knuth
 Oxalis acetosella ssp. montana (Raf.) Hultén ex D. Löve
